--- a/Chapter5_Additional_Files/AdditionalFile1_statistics_permutations.xlsx
+++ b/Chapter5_Additional_Files/AdditionalFile1_statistics_permutations.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandal1/Dropbox/Umesh/PhDthesisUN/Liver_Additional_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdmoerland\Dropbox\Projects\Umesh_Nandal\Umesh\PhDthesisUN\Liver_Additional_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7CE228-A268-1640-9538-0005AC8117BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="30800" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="495" windowWidth="30795" windowHeight="20205"/>
   </bookViews>
   <sheets>
-    <sheet name="Alignment statistics" sheetId="1" r:id="rId1"/>
+    <sheet name="Additional file 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Size of biggest module</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <r>
       <t>E-value cut-off (</t>
@@ -63,63 +59,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Co-expression cut-off (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>P-value</t>
   </si>
   <si>
     <t>Additional file 1: Statistics of alignments at various E-value and coexpression cutoffs</t>
   </si>
   <si>
-    <t>Nr. of conserved Interactions</t>
-  </si>
-  <si>
     <t>Nr. of modules</t>
   </si>
   <si>
-    <t>Nr. of conserved Interactions in biggest module</t>
-  </si>
-  <si>
     <t>Nr. of nodes</t>
-  </si>
-  <si>
-    <t>Nr. of nodes: number of aligned pairs</t>
   </si>
   <si>
     <t>Nr. of orthologs</t>
   </si>
   <si>
     <t>Orthologs (%)</t>
-  </si>
-  <si>
-    <t>Nr. of non-orthologs: number of ailgned pairs consisting of non-orthologous genes</t>
-  </si>
-  <si>
-    <t>Nr. of orthologs: number of aligned pairs consisting of orthologous genes</t>
   </si>
   <si>
     <t xml:space="preserve">Nr. of non-orthologs </t>
@@ -169,28 +124,81 @@
     </r>
   </si>
   <si>
-    <t>Significant alignments with permutation p-value &lt;=0.05 are highlighted</t>
+    <r>
+      <t>Coexpression cut-off (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>Type 1: non-orthologous pair for which both the orthologous human and mouse gene are absent in the orthology mapping</t>
+    <t>Statistical significance of the alignment solution according to a permutation test. Significant alignments  (p &lt;=0.05) are highlighted</t>
   </si>
   <si>
-    <t>Type 2: non-orthologous pair for which both the orthologous human and mouse gene are absent in the expression data</t>
+    <t>Number of aligned nodes corresponding to orthologous genes</t>
   </si>
   <si>
-    <t>Type 3: non-orthologous pair for which either the orthologous human or mouse gene is present in the expression data</t>
+    <t>Number of aligned nodes</t>
   </si>
   <si>
-    <t>Type 4: non-orthologous pair for which both the orthologous human and mouse gene are present in the expression data</t>
+    <t>Nr. of non-orthologs</t>
   </si>
   <si>
-    <t>Type 5: others</t>
+    <t>Number of aligned nodes corresponding to non-orthologous genes</t>
+  </si>
+  <si>
+    <t>Non-orthologous aligned nodes for which both the orthologous human and mouse gene are absent in the orthology mapping</t>
+  </si>
+  <si>
+    <t>Non-orthologous ailgned nodes for which both the orthologous human and mouse gene are absent in the expression data</t>
+  </si>
+  <si>
+    <t>Non-orthologous aligned nodes for which either the orthologous human or mouse gene is present in the expression data</t>
+  </si>
+  <si>
+    <t>Non-orthologous aligned nodes for which both the orthologous human and mouse gene are present in the expression data</t>
+  </si>
+  <si>
+    <t>Other cases</t>
+  </si>
+  <si>
+    <t>Nr. of edges</t>
+  </si>
+  <si>
+    <t>Nr. of edges in biggest module</t>
+  </si>
+  <si>
+    <t>Nr. of nodes in biggest module</t>
+  </si>
+  <si>
+    <t>Number of pairs of aligned edges in the alignment solution after module decomposition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +352,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -704,7 +712,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,16 +724,23 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1173,160 +1188,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="K14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1E-4</v>
       </c>
@@ -1336,8 +1380,8 @@
       <c r="C15" s="3">
         <v>100000</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E15" s="3">
         <v>2078</v>
@@ -1380,7 +1424,7 @@
         <v>14187</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1E-4</v>
       </c>
@@ -1390,8 +1434,8 @@
       <c r="C16" s="3">
         <v>100000</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
+      <c r="D16" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E16" s="3">
         <v>1333</v>
@@ -1434,7 +1478,7 @@
         <v>5413</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1E-4</v>
       </c>
@@ -1444,8 +1488,8 @@
       <c r="C17" s="3">
         <v>100000</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E17" s="3">
         <v>759</v>
@@ -1488,7 +1532,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1E-4</v>
       </c>
@@ -1498,8 +1542,8 @@
       <c r="C18" s="3">
         <v>100000</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E18" s="3">
         <v>365</v>
@@ -1542,7 +1586,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1E-4</v>
       </c>
@@ -1552,8 +1596,8 @@
       <c r="C19" s="3">
         <v>100000</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
+      <c r="D19" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E19" s="3">
         <v>180</v>
@@ -1596,7 +1640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1E-4</v>
       </c>
@@ -1606,8 +1650,8 @@
       <c r="C20" s="3">
         <v>100000</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E20" s="3">
         <v>69</v>
@@ -1650,10 +1694,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="15"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1E-3</v>
       </c>
@@ -1663,8 +1708,8 @@
       <c r="C22" s="3">
         <v>100000</v>
       </c>
-      <c r="D22" s="3">
-        <v>0.01</v>
+      <c r="D22" s="14">
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="E22" s="3">
         <v>2184</v>
@@ -1707,7 +1752,7 @@
         <v>15643</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1E-3</v>
       </c>
@@ -1717,8 +1762,8 @@
       <c r="C23" s="3">
         <v>100000</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E23" s="3">
         <v>1420</v>
@@ -1761,7 +1806,7 @@
         <v>6110</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1E-3</v>
       </c>
@@ -1771,8 +1816,8 @@
       <c r="C24" s="3">
         <v>100000</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E24" s="3">
         <v>813</v>
@@ -1815,7 +1860,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1E-3</v>
       </c>
@@ -1825,8 +1870,8 @@
       <c r="C25" s="3">
         <v>100000</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
+      <c r="D25" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E25" s="3">
         <v>399</v>
@@ -1869,7 +1914,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1E-3</v>
       </c>
@@ -1879,8 +1924,8 @@
       <c r="C26" s="3">
         <v>100000</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E26" s="3">
         <v>193</v>
@@ -1923,7 +1968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1E-3</v>
       </c>
@@ -1933,8 +1978,8 @@
       <c r="C27" s="3">
         <v>100000</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E27" s="3">
         <v>75</v>
@@ -1977,11 +2022,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="15"/>
       <c r="G28" s="6"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
@@ -1991,8 +2037,8 @@
       <c r="C29" s="2">
         <v>100000</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.26</v>
+      <c r="D29" s="15">
+        <v>0.26732673267326734</v>
       </c>
       <c r="E29" s="2">
         <v>2346</v>
@@ -2035,7 +2081,7 @@
         <v>17793</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.01</v>
       </c>
@@ -2045,8 +2091,8 @@
       <c r="C30" s="3">
         <v>100000</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.02</v>
+      <c r="D30" s="14">
+        <v>2.9702970297029702E-2</v>
       </c>
       <c r="E30" s="3">
         <v>1543</v>
@@ -2089,7 +2135,7 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0.01</v>
       </c>
@@ -2099,8 +2145,8 @@
       <c r="C31" s="3">
         <v>100000</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
+      <c r="D31" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E31" s="3">
         <v>897</v>
@@ -2143,7 +2189,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>0.01</v>
       </c>
@@ -2153,8 +2199,8 @@
       <c r="C32" s="3">
         <v>100000</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E32" s="3">
         <v>447</v>
@@ -2197,7 +2243,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>0.01</v>
       </c>
@@ -2207,8 +2253,8 @@
       <c r="C33" s="3">
         <v>100000</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E33" s="3">
         <v>212</v>
@@ -2251,7 +2297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>0.01</v>
       </c>
@@ -2261,8 +2307,8 @@
       <c r="C34" s="3">
         <v>100000</v>
       </c>
-      <c r="D34" s="3">
-        <v>0</v>
+      <c r="D34" s="14">
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="E34" s="3">
         <v>88</v>
@@ -2305,10 +2351,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="15"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>0.1</v>
       </c>
@@ -2318,7 +2365,7 @@
       <c r="C36" s="2">
         <v>100000</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="15">
         <v>1</v>
       </c>
       <c r="E36" s="2">
@@ -2362,7 +2409,7 @@
         <v>23555</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>0.1</v>
       </c>
@@ -2372,8 +2419,8 @@
       <c r="C37" s="2">
         <v>100000</v>
       </c>
-      <c r="D37" s="2">
-        <v>0.9</v>
+      <c r="D37" s="15">
+        <v>0.90099009900990101</v>
       </c>
       <c r="E37" s="2">
         <v>1874</v>
@@ -2416,7 +2463,7 @@
         <v>9127</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>0.1</v>
       </c>
@@ -2426,8 +2473,8 @@
       <c r="C38" s="2">
         <v>100000</v>
       </c>
-      <c r="D38" s="2">
-        <v>0.38</v>
+      <c r="D38" s="15">
+        <v>0.38613861386138615</v>
       </c>
       <c r="E38" s="2">
         <v>1065</v>
@@ -2470,7 +2517,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>0.1</v>
       </c>
@@ -2480,8 +2527,8 @@
       <c r="C39" s="2">
         <v>100000</v>
       </c>
-      <c r="D39" s="2">
-        <v>0.1</v>
+      <c r="D39" s="15">
+        <v>0.10891089108910891</v>
       </c>
       <c r="E39" s="2">
         <v>544</v>
@@ -2524,7 +2571,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0.1</v>
       </c>
@@ -2534,8 +2581,8 @@
       <c r="C40" s="2">
         <v>100000</v>
       </c>
-      <c r="D40" s="2">
-        <v>0.06</v>
+      <c r="D40" s="15">
+        <v>6.9306930693069313E-2</v>
       </c>
       <c r="E40" s="2">
         <v>249</v>
@@ -2578,7 +2625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>0.1</v>
       </c>
@@ -2588,8 +2635,8 @@
       <c r="C41" s="2">
         <v>100000</v>
       </c>
-      <c r="D41" s="2">
-        <v>0.12</v>
+      <c r="D41" s="15">
+        <v>0.12871287128712872</v>
       </c>
       <c r="E41" s="2">
         <v>98</v>
@@ -2632,15 +2679,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2650,8 +2697,9 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -2661,7 +2709,7 @@
       <c r="C43" s="2">
         <v>100000</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="15">
         <v>1</v>
       </c>
       <c r="E43" s="2">
@@ -2705,7 +2753,7 @@
         <v>39794</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -2715,7 +2763,7 @@
       <c r="C44" s="2">
         <v>100000</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="2">
@@ -2759,7 +2807,7 @@
         <v>15296</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -2769,7 +2817,7 @@
       <c r="C45" s="2">
         <v>100000</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="15">
         <v>1</v>
       </c>
       <c r="E45" s="2">
@@ -2813,7 +2861,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -2823,7 +2871,7 @@
       <c r="C46" s="2">
         <v>100000</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="15">
         <v>1</v>
       </c>
       <c r="E46" s="2">
@@ -2867,7 +2915,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -2877,8 +2925,8 @@
       <c r="C47" s="2">
         <v>100000</v>
       </c>
-      <c r="D47" s="2">
-        <v>0.91</v>
+      <c r="D47" s="15">
+        <v>0.91089108910891092</v>
       </c>
       <c r="E47" s="2">
         <v>398</v>
@@ -2921,7 +2969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -2931,8 +2979,8 @@
       <c r="C48" s="2">
         <v>100000</v>
       </c>
-      <c r="D48" s="2">
-        <v>0.61</v>
+      <c r="D48" s="15">
+        <v>0.61386138613861385</v>
       </c>
       <c r="E48" s="2">
         <v>141</v>

--- a/Chapter5_Additional_Files/AdditionalFile1_statistics_permutations.xlsx
+++ b/Chapter5_Additional_Files/AdditionalFile1_statistics_permutations.xlsx
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>P-value</t>
-  </si>
-  <si>
-    <t>Additional file 1: Statistics of alignments at various E-value and coexpression cutoffs</t>
   </si>
   <si>
     <t>Nr. of modules</t>
@@ -150,9 +147,6 @@
     </r>
   </si>
   <si>
-    <t>Statistical significance of the alignment solution according to a permutation test. Significant alignments  (p &lt;=0.05) are highlighted</t>
-  </si>
-  <si>
     <t>Number of aligned nodes corresponding to orthologous genes</t>
   </si>
   <si>
@@ -165,21 +159,6 @@
     <t>Number of aligned nodes corresponding to non-orthologous genes</t>
   </si>
   <si>
-    <t>Non-orthologous aligned nodes for which both the orthologous human and mouse gene are absent in the orthology mapping</t>
-  </si>
-  <si>
-    <t>Non-orthologous ailgned nodes for which both the orthologous human and mouse gene are absent in the expression data</t>
-  </si>
-  <si>
-    <t>Non-orthologous aligned nodes for which either the orthologous human or mouse gene is present in the expression data</t>
-  </si>
-  <si>
-    <t>Non-orthologous aligned nodes for which both the orthologous human and mouse gene are present in the expression data</t>
-  </si>
-  <si>
-    <t>Other cases</t>
-  </si>
-  <si>
     <t>Nr. of edges</t>
   </si>
   <si>
@@ -190,6 +169,27 @@
   </si>
   <si>
     <t>Number of pairs of aligned edges in the alignment solution after module decomposition</t>
+  </si>
+  <si>
+    <t>Additional file 1: Statistics of alignments at various E-value and coexpression cut-offs</t>
+  </si>
+  <si>
+    <t>Statistical significance of the alignment solution according to a permutation test (100 randomized networks). Significant alignments  (p &lt;=0.05) are highlighted</t>
+  </si>
+  <si>
+    <t>Number of aligned non-orthologous nodes for which both the orthologous human and mouse gene are absent in the orthology mapping</t>
+  </si>
+  <si>
+    <t>Number of aligned non-orthologous nodes for which both the orthologous human and mouse gene are absent in the expression data</t>
+  </si>
+  <si>
+    <t>Number of aligned non-orthologous nodes for which either the orthologous human or mouse gene is present in the expression data</t>
+  </si>
+  <si>
+    <t>Number of aligned non-orthologous nodes for which both the orthologous human and mouse gene are present in the expression data</t>
+  </si>
+  <si>
+    <t>Number of aligned non-orthologous nodes: other cases</t>
   </si>
 </sst>
 </file>
@@ -736,11 +736,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1212,7 +1212,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1220,79 +1220,79 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1301,44 +1301,44 @@
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="I13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1351,19 +1351,19 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1380,7 +1380,7 @@
       <c r="C15" s="3">
         <v>100000</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E15" s="3">
@@ -1434,7 +1434,7 @@
       <c r="C16" s="3">
         <v>100000</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E16" s="3">
@@ -1488,7 +1488,7 @@
       <c r="C17" s="3">
         <v>100000</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E17" s="3">
@@ -1542,7 +1542,7 @@
       <c r="C18" s="3">
         <v>100000</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E18" s="3">
@@ -1596,7 +1596,7 @@
       <c r="C19" s="3">
         <v>100000</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E19" s="3">
@@ -1650,7 +1650,7 @@
       <c r="C20" s="3">
         <v>100000</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E20" s="3">
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
       <c r="C22" s="3">
         <v>100000</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="E22" s="3">
@@ -1762,7 +1762,7 @@
       <c r="C23" s="3">
         <v>100000</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E23" s="3">
@@ -1816,7 +1816,7 @@
       <c r="C24" s="3">
         <v>100000</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E24" s="3">
@@ -1870,7 +1870,7 @@
       <c r="C25" s="3">
         <v>100000</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E25" s="3">
@@ -1924,7 +1924,7 @@
       <c r="C26" s="3">
         <v>100000</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E26" s="3">
@@ -1978,7 +1978,7 @@
       <c r="C27" s="3">
         <v>100000</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E27" s="3">
@@ -2023,7 +2023,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
+      <c r="D28" s="14"/>
       <c r="G28" s="6"/>
       <c r="I28" s="8"/>
     </row>
@@ -2037,7 +2037,7 @@
       <c r="C29" s="2">
         <v>100000</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>0.26732673267326734</v>
       </c>
       <c r="E29" s="2">
@@ -2091,7 +2091,7 @@
       <c r="C30" s="3">
         <v>100000</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="E30" s="3">
@@ -2145,7 +2145,7 @@
       <c r="C31" s="3">
         <v>100000</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E31" s="3">
@@ -2199,7 +2199,7 @@
       <c r="C32" s="3">
         <v>100000</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E32" s="3">
@@ -2253,7 +2253,7 @@
       <c r="C33" s="3">
         <v>100000</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E33" s="3">
@@ -2307,7 +2307,7 @@
       <c r="C34" s="3">
         <v>100000</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="E34" s="3">
@@ -2352,7 +2352,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
       <c r="C36" s="2">
         <v>100000</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>1</v>
       </c>
       <c r="E36" s="2">
@@ -2419,7 +2419,7 @@
       <c r="C37" s="2">
         <v>100000</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="14">
         <v>0.90099009900990101</v>
       </c>
       <c r="E37" s="2">
@@ -2473,7 +2473,7 @@
       <c r="C38" s="2">
         <v>100000</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>0.38613861386138615</v>
       </c>
       <c r="E38" s="2">
@@ -2527,7 +2527,7 @@
       <c r="C39" s="2">
         <v>100000</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>0.10891089108910891</v>
       </c>
       <c r="E39" s="2">
@@ -2581,7 +2581,7 @@
       <c r="C40" s="2">
         <v>100000</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>6.9306930693069313E-2</v>
       </c>
       <c r="E40" s="2">
@@ -2635,7 +2635,7 @@
       <c r="C41" s="2">
         <v>100000</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>0.12871287128712872</v>
       </c>
       <c r="E41" s="2">
@@ -2683,7 +2683,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2709,7 +2709,7 @@
       <c r="C43" s="2">
         <v>100000</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>1</v>
       </c>
       <c r="E43" s="2">
@@ -2763,7 +2763,7 @@
       <c r="C44" s="2">
         <v>100000</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>1</v>
       </c>
       <c r="E44" s="2">
@@ -2817,7 +2817,7 @@
       <c r="C45" s="2">
         <v>100000</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>1</v>
       </c>
       <c r="E45" s="2">
@@ -2871,7 +2871,7 @@
       <c r="C46" s="2">
         <v>100000</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>1</v>
       </c>
       <c r="E46" s="2">
@@ -2925,7 +2925,7 @@
       <c r="C47" s="2">
         <v>100000</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>0.91089108910891092</v>
       </c>
       <c r="E47" s="2">
@@ -2979,7 +2979,7 @@
       <c r="C48" s="2">
         <v>100000</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>0.61386138613861385</v>
       </c>
       <c r="E48" s="2">
